--- a/olympic_games.xlsx
+++ b/olympic_games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Documents/Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Documents/Projects/competitive_olympics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C76BD9-57BC-6545-AA75-B349600B4877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF38D7D-590C-254E-AA6A-57BEBCF9BD29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{77425A0F-0C24-294B-9BD0-9CC9691F61F7}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">wiki!$A$1:$M$72</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -860,8 +860,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1619,7 +1619,7 @@
         <v>43315</v>
       </c>
       <c r="K26" s="1" t="str">
-        <f t="shared" ref="K26:K27" si="9">LOWER(SUBSTITUTE(SUBSTITUTE(A26,".","")," ","-"))</f>
+        <f t="shared" ref="K26" si="9">LOWER(SUBSTITUTE(SUBSTITUTE(A26,".","")," ","-"))</f>
         <v>helsinki</v>
       </c>
       <c r="L26" t="str">
